--- a/Amazon/AmazonJP/Htmls/Htmls.xlsx
+++ b/Amazon/AmazonJP/Htmls/Htmls.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\test3\PythonProject\Amazon\AmazonJP\Htmls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22950" windowHeight="9510"/>
+    <workbookView windowWidth="18468" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
   <si>
     <t>https://www.amazon.co.jp/gp/product/B00XY6WCV2/ref=s9_acss_bw_cg_ehero01_md1?pf_rd_m=AN1VRQENFRJN5&amp;pf_rd_s=merchandised-search-2&amp;pf_rd_r=7EY5083S4T9J8HZTRWBH&amp;pf_rd_t=101&amp;pf_rd_p=0a66bc87-ccdf-4acb-8c83-c6faef0ca222&amp;pf_rd_i=3477981</t>
   </si>
@@ -29,102 +24,18 @@
   <si>
     <t>https://www.amazon.co.jp/%E3%82%A8%E3%83%8C%E3%83%86%E3%82%A3%E3%83%BC-%E3%82%AB%E3%83%BC%E3%83%88%E3%83%AA%E3%83%83%E3%82%B8%E5%BC%8F%E3%82%AB%E3%83%83%E3%82%BF%E3%83%BC-6%E9%80%A3%E7%99%BA%E3%82%BF%E3%82%A4%E3%83%97-%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF-L-700RP-BK/dp/B004MXKHR2/ref=sr_1_14?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479035637&amp;sr=1-14&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
   </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%8A%E3%82%AB%E3%83%90%E3%83%A4%E3%82%B7-%E8%89%B2%E9%89%9B%E7%AD%86-36%E8%89%B2-%E7%AD%92%E3%82%B1%E3%83%BC%E3%82%B9%E5%85%A5-CP-36NW/dp/B01G6S607Q/ref=sr_1_21?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479035637&amp;sr=1-21&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/watona-%E3%83%AF%E3%83%88%E3%83%8A-%E5%B8%86%E5%B8%83%E3%81%8C%E3%81%BE%E5%8F%A3-%E3%83%9A%E3%83%B3%E3%82%B1%E3%83%BC%E3%82%B9-%E3%83%91%E3%83%BC%E3%83%97%E3%83%AB/dp/B00NLIX9A6/ref=sr_1_23?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479035637&amp;sr=1-23&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%81%BA%E3%82%93%E3%81%A6%E3%82%8B-%E7%AD%86%E3%83%9A%E3%83%B3-%E3%81%BA%E3%82%93%E3%81%A6%E3%82%8B%E7%AD%86-%E4%B8%AD%E5%AD%97-XFL2L/dp/B000THNGVO/ref=pd_bxgy_201_img_2?_encoding=UTF8&amp;psc=1&amp;refRID=3P49RK9C8FF72AJTMGDF</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%B9%E3%82%BA%E3%82%AD%E7%B4%99%E5%B7%A5-%E3%82%B9-6233-%E7%A5%9D%E5%84%80%E8%A2%8B-%E3%83%87%E3%82%B6%E3%82%A4%E3%83%B3%E9%87%91%E5%B0%81/dp/B00TS6RXO8/ref=pd_bxgy_201_img_3?_encoding=UTF8&amp;refRID=8KTED5FDW41JE7WP5SBM&amp;th=1</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/TOLVE-%E3%83%88%E3%83%AB%E3%83%B4%E3%82%A7-%E3%83%96%E3%83%83%E3%82%AF%E3%82%AB%E3%83%90%E3%83%BC-C001-%EF%BC%8807-%E3%83%B4%E3%82%A3%E3%83%B3%E3%83%86%E3%83%BC%E3%82%B8%E3%83%96%E3%83%A9%E3%82%A6%E3%83%B3%EF%BC%89/dp/B018RFR1RO/ref=sr_1_29?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479036312&amp;sr=1-29&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E6%97%A5%E6%9C%AC%E7%90%86%E5%8C%96%E5%AD%A6-%E3%83%80%E3%82%B9%E3%83%88%E3%83%AC%E3%82%B9-%E3%81%8A%E3%81%88%E3%81%8B%E3%81%8D%E3%83%81%E3%83%A7%E3%83%BC%E3%82%AF-DE-12-12%E6%9C%AC/dp/B00AL6GQDI/ref=sr_1_41?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479036312&amp;sr=1-41&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%B3%E3%82%AF%E3%83%A8-%E3%82%B7%E3%83%A5%E3%83%AC%E3%83%83%E3%83%80%E3%83%BC-%E3%82%B3%E3%83%B3%E3%83%91%E3%82%AF%E3%83%88-%E6%9C%80%E5%A4%A7%E7%B4%B0%E6%96%AD5%E6%9E%9A-AMKPS-X80W/dp/B00IJ4P87E/ref=sr_1_45?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479036312&amp;sr=1-45&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%BB%E3%83%BC%E3%83%A9%E3%83%BC%E4%B8%87%E5%B9%B4%E7%AD%86-%E5%A4%9A%E6%A9%9F%E8%83%BD%E3%83%9A%E3%83%B3-%E5%84%AA%E7%BE%8E%E8%92%94%E7%B5%B5-%E5%AF%8C%E5%A3%AB%E5%B1%B1-16-0348-220/dp/B00PF4YSA4/ref=sr_1_51?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-51&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%88%E3%83%B3%E3%83%9C%E9%89%9B%E7%AD%86-%E9%89%9B%E7%AD%86-%E6%9C%A8%E7%89%A9%E8%AA%9E-KEA2B-1%E3%83%80%E3%83%BC%E3%82%B9/dp/B000THTOYC/ref=sr_1_56?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-56&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A8%E3%83%AC%E3%82%B3%E3%83%A0-%E3%82%AF%E3%83%A9%E3%83%95%E3%83%88%E7%B4%99-20%E6%9E%9A%E5%85%A5%E3%82%8A-%E3%82%A4%E3%83%B3%E3%82%AF%E3%82%B8%E3%82%A7%E3%83%83%E3%83%88-%E3%80%90%E6%97%A5%E6%9C%AC%E8%A3%BD%E3%80%91EJK-KRAA420/dp/B00B3NGH96/ref=sr_1_59?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-59&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/IZUMI-5569-%E7%A1%AC%E8%B2%A8%E3%81%AE%E4%BB%95%E5%88%86%E3%81%91%E3%81%AB%E4%BE%BF%E5%88%A9%EF%BC%81%E2%98%85%E3%82%BB%E3%83%91%E3%83%AC%E3%83%BC%E3%83%88-%E3%82%B3%E3%82%A4%E3%83%B3%E3%82%B1%E3%83%BC%E3%82%B9%E2%98%85%E3%80%90%E6%97%A5%E6%9C%AC%E8%A3%BD%E3%80%91/dp/B00FO6Q1R6/ref=sr_1_60?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-60&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A8%E3%83%AC%E3%82%B3%E3%83%A0-100%E6%9E%9A%E5%85%A5%E3%82%8A-%E3%83%9A%E3%83%BC%E3%83%91%E3%83%BC%E3%82%AF%E3%83%A9%E3%83%95%E3%83%88-POP%E3%81%AB%E6%9C%80%E9%81%A9-%E3%80%90%E6%97%A5%E6%9C%AC%E8%A3%BD%E3%80%91EJK-STAA4100/dp/B00B3NGIT0/ref=sr_1_69?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-69&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%BC%E3%83%96%E3%83%A9-%E6%BC%AB%E7%94%BB%E7%94%A8%E3%83%9A%E3%83%B3%E5%85%88-No-G-PG-6B-C-K-%E3%82%AF%E3%83%AD%E3%83%BC%E3%83%A0/dp/B006CQW428/ref=sr_1_70?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-70&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%83%A4%E3%83%9E%E3%83%88-%E3%83%A1%E3%83%A2%E3%83%83%E3%82%AF%E3%83%AD%E3%83%BC%E3%83%AB%E3%83%86%E3%83%BC%E3%83%97-50mm%E5%B9%85-%E3%83%AC%E3%83%A2%E3%83%B3-RK-50CH-LE/dp/B0177SAN40/ref=sr_1_71?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037263&amp;sr=1-71&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%AB%E3%83%BC%E3%83%AB%E4%BA%8B%E5%8B%99%E5%99%A8-Japan%E3%83%9F%E3%82%B9%E3%82%BF%E3%83%BC%E3%83%91%E3%83%B3%E3%83%81-%E3%82%B7%E3%83%AB%E3%83%90%E3%83%BC-MRP-30-S-00438441/dp/B01LYJ4GCB/ref=sr_1_81?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037781&amp;sr=1-81&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%B3%E3%82%AF%E3%83%A8-KE-AC18-%E9%80%8F%E6%98%8E%E3%81%8F%E3%82%8C%E3%82%88%E3%82%9310%E8%89%B2/dp/B00VVHOIRM/ref=sr_1_80?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037781&amp;sr=1-80&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/COLORFUL-CANDY-STYLE-%E3%81%94%E3%81%8D%E3%81%92%E3%82%93%E3%83%A9%E3%83%B3%E3%83%81%E3%81%AE%E5%B7%BE%E7%9D%80%EF%BC%88%E5%B0%8F%E3%82%B5%E3%82%A4%E3%82%BA%EF%BC%89%E3%83%BB%E3%83%9E%E3%83%81%E4%BB%98%E3%82%B3%E3%83%83%E3%83%97%E8%A2%8B-%E9%9B%86%E3%81%BE%E3%82%8C%EF%BC%81%E3%81%84%E3%82%8D%E3%82%93%E3%81%AA%E3%81%8F%E3%82%8B%E3%81%BE%EF%BC%88%E7%94%9F%E6%88%90%EF%BC%89-%E3%82%AA%E3%83%83%E3%82%AF%E3%82%B9%E3%83%BB%E7%B4%BA-%E6%97%A5%E6%9C%AC%E8%A3%BD-N3566200/dp/B009RGROMU/ref=sr_1_82?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037781&amp;sr=1-82&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%BC%E3%83%96%E3%83%A9-%E6%BC%AB%E7%94%BB%E7%94%A8%E3%83%9A%E3%83%B3%E5%85%88-%E3%83%81%E3%82%BF%E3%83%B3G%E3%83%9A%E3%83%B3%E3%83%97%E3%83%AD-PG-7B-C-K-10%E6%9C%AC/dp/B00LUD4DAY/ref=sr_1_83?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479037781&amp;sr=1-83&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E9%AB%98%E7%B4%9A-%E9%BB%92%E6%AA%80-%E5%8D%B0%E7%9F%A9%EF%BC%88%E3%81%84%E3%82%93%E3%81%8F%EF%BC%89-%EF%BC%B4%E5%9E%8B-%E3%80%90%E6%97%A5%E6%9C%AC%E8%A3%BD%E3%80%91/dp/B018G4DOH2/ref=sr_1_196?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479038391&amp;sr=1-196&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/Japanese-traditional-handicrafts-ball-point-SAKURA/dp/B00IG0NNPA/ref=sr_1_104?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479038257&amp;sr=1-104&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E6%97%A5%E6%9C%AC%E7%90%86%E5%8C%96%E5%AD%A6-%E3%83%80%E3%82%B9%E3%83%88%E3%83%AC%E3%82%B9%E8%9B%8D%E5%85%89%E3%83%81%E3%83%A7%E3%83%BC%E3%82%AF-6%E8%89%B2-DCK-72-6C-72%E6%9C%AC/dp/B003SBL372/ref=sr_1_127?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479038283&amp;sr=1-127&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E5%BF%97%E6%98%8C%E5%A0%82-ST-2097-13-%E3%80%90%E3%81%BB%E3%81%BC%E6%97%A5%E6%9C%AC%E8%A3%BD%E2%98%85%E4%B8%AD%E8%BA%AB%E3%81%8C%E9%81%95%E3%81%86%E3%80%91%E5%AD%90%E4%BE%9B%E3%81%A0%E3%81%A3%E3%81%A6%E8%89%AF%E3%81%84%E3%82%82%E3%81%AE%E4%BD%BF%E3%81%84%E3%81%9F%E3%81%84%EF%BC%81%E6%9B%B8%E9%81%93%E3%82%BB%E3%83%83%E3%83%88%E2%98%85%E5%BA%83%E5%B3%B6%E7%86%8A%E9%87%8E%E7%AD%86%EF%BC%86%E5%A4%AA%E3%81%84%E6%96%87%E9%8E%AE%EF%BC%86%E4%B8%8A%E8%B3%AA%E3%81%AA%E6%9C%AC%E7%9F%B3%E7%A1%AF-%E3%82%A8%E3%83%B3%E3%83%96%E3%83%AC%E3%83%A0%E6%9F%84/dp/B01C483AES/ref=sr_1_8?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479038474&amp;sr=1-8&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E3%82%A8%E3%83%B3%E3%83%89%E3%83%9E%E3%83%BC%E3%82%AF-%E3%83%AD%E3%83%BC%E3%83%AB%E3%83%9A%E3%83%B3%E3%82%B1%E3%83%BC%E3%82%B9-%E3%83%9A%E3%83%B3%E3%82%B1%E3%83%BC%E3%82%B9-%E6%97%A5%E6%9C%AC%E8%A3%BD-%E3%82%B0%E3%83%AC%E3%83%BC/dp/B010F67L5A/ref=sr_1_44?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479036312&amp;sr=1-44&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E6%B0%B4%E5%BC%95%E9%A4%A8-%E4%BA%AC%E6%89%87%E5%AD%90-%E3%80%8C%E6%97%A5%E6%9C%AC%E3%81%AE%E9%A2%A8%E6%99%AF%E3%80%8D-%E7%94%B7%E6%80%A7%E7%94%A8-%E4%B8%A1%E9%9D%A2%E7%B5%B5%E6%9F%84%E3%81%82%E3%82%8A-%E6%97%A5%E6%9C%AC%E8%A3%BD/dp/B0035P7GFY/ref=sr_1_249?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479038982&amp;sr=1-249&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E9%95%B7%E8%B0%B7%E5%B7%9D%E5%88%83%E7%89%A9-RE-20-%E7%B7%8A%E6%80%A5%E3%83%84%E3%83%BC%E3%83%AB-%E3%82%A4%E3%82%A8%E3%83%AD%E3%83%BC/dp/B000XYYPIG/ref=sr_1_252?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479038982&amp;sr=1-252&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E9%95%B7%E8%B0%B7%E5%B7%9D%E5%88%83%E7%89%A9-LNC-01-%E7%9D%80%E8%84%B1%E5%BC%8F%E3%83%AB%E3%83%BC%E3%83%9A%E7%88%AA%E5%88%87%E3%82%8A/dp/B01G7YVP42/ref=sr_1_268?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479039096&amp;sr=1-268&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E6%A0%AA%E5%BC%8F%E4%BC%9A%E7%A4%BE%E3%83%93%E3%83%BC%E3%82%A8%E3%83%95%E3%82%B7%E3%83%BC-%E5%B0%81%E5%8D%B0%E3%82%B7%E3%83%BC%E3%83%AB-%E6%A5%95%E5%86%86-%E6%A5%AD%E5%8B%99%E7%94%A8%E5%B0%81%E5%8D%B0%E3%82%B7%E3%83%BC%E3%83%AB%EF%BC%88%E9%8A%80%EF%BC%89-200%E6%9E%9A%E3%80%905%E3%82%B7%E3%83%BC%E3%83%88%E5%85%A5%EF%BC%881%E3%82%B7%E3%83%BC%E3%83%88%E3%81%AB40%E6%9E%9A%EF%BC%89%E3%80%91%E3%83%96%E3%83%A9%E3%83%B3%E3%83%89%E5%93%81-%E6%97%A5%E6%9C%AC%E8%A3%BD/dp/B01BTSE1K6/ref=sr_1_339?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479039325&amp;sr=1-339&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/ESCHENBACH-%E3%82%B7%E3%83%8B%E3%82%A2%E3%82%B0%E3%83%A9%E3%82%B9-%E3%83%A9%E3%82%A6%E3%83%B3%E3%83%89%E3%82%BF%E3%82%A4%E3%83%97-3-0%E5%BA%A6-2994-1130/dp/B007H5K48Y/ref=sr_1_322?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479039273&amp;sr=1-322&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E7%AF%86%E5%88%BB%E5%88%80-%E5%8D%B0%E5%88%80-%E9%9D%A9%E5%B7%BB%E3%81%8D-8mm-%E3%80%90%E6%97%A5%E6%9C%AC%E8%A3%BD%E3%80%91/dp/B00H0S74L8/ref=sr_1_368?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479039416&amp;sr=1-368&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
-  <si>
-    <t>https://www.amazon.co.jp/%E9%95%B7%E8%B0%B7%E5%B7%9D%E5%88%83%E7%89%A9-EL-210-%E3%82%AD%E3%83%83%E3%83%81%E3%83%B3%E3%83%8F%E3%82%B5%E3%83%9FEL-%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF/dp/B000O1PC6C/ref=sr_1_2?s=office-products&amp;ie=UTF8&amp;qid=1480141253&amp;sr=1-2&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,25 +47,356 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -162,9 +404,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,24 +656,63 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -479,14 +1002,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A34" sqref="$A4:$XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
@@ -494,179 +1018,24 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Amazon/AmazonJP/Htmls/Htmls.xlsx
+++ b/Amazon/AmazonJP/Htmls/Htmls.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\test5\PythonProject\Amazon\AmazonJP\Htmls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="9510"/>
+    <workbookView windowWidth="28560" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon" sheetId="1" r:id="rId1"/>
@@ -19,16 +14,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
-    <t>https://www.amazon.co.jp/%E3%82%A8%E3%83%8C%E3%83%86%E3%82%A3%E3%83%BC-%E3%82%AB%E3%83%BC%E3%83%88%E3%83%AA%E3%83%83%E3%82%B8%E5%BC%8F%E3%82%AB%E3%83%83%E3%82%BF%E3%83%BC-6%E9%80%A3%E7%99%BA%E3%82%BF%E3%82%A4%E3%83%97-%E3%83%96%E3%83%A9%E3%83%83%E3%82%AF-L-700RP-BK/dp/B004MXKHR2/ref=sr_1_14?s=office-products&amp;rps=1&amp;ie=UTF8&amp;qid=1479035637&amp;sr=1-14&amp;keywords=%E6%97%A5%E6%9C%AC%E8%A3%BD</t>
+    <t>https://www.amazon.co.jp/gp/product/B00U5NQKZ6/ref=s9_acsd_ri_bw_rw_r0_p2_t_w?pf_rd_m=AN1VRQENFRJN5&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_r=XQ389905HSG7YA4WNGPN&amp;pf_rd_r=XQ389905HSG7YA4WNGPN&amp;pf_rd_t=101&amp;pf_rd_p=d533e1c7-a774-4ae9-9ef1-75fe61352674&amp;pf_rd_p=d533e1c7-a774-4ae9-9ef1-75fe61352674&amp;pf_rd_i=2547227051</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,21 +45,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -66,9 +398,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -76,24 +650,63 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -383,14 +996,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
@@ -398,14 +1012,14 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Amazon/AmazonJP/Htmls/Htmls.xlsx
+++ b/Amazon/AmazonJP/Htmls/Htmls.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
   <si>
-    <t>https://www.amazon.co.jp/gp/product/B00U5NQKZ6/ref=s9_acsd_ri_bw_rw_r0_p2_t_w?pf_rd_m=AN1VRQENFRJN5&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_r=XQ389905HSG7YA4WNGPN&amp;pf_rd_r=XQ389905HSG7YA4WNGPN&amp;pf_rd_t=101&amp;pf_rd_p=d533e1c7-a774-4ae9-9ef1-75fe61352674&amp;pf_rd_p=d533e1c7-a774-4ae9-9ef1-75fe61352674&amp;pf_rd_i=2547227051</t>
+    <t>https://www.amazon.co.jp/%E3%83%8A%E3%83%93%E3%82%A8%E3%83%83%E3%83%88-NABIET-%E3%83%95%E3%82%A3%E3%83%BC%E3%83%AB%E3%83%89%E3%82%B9%E3%82%B3%E3%83%BC%E3%83%97-%E3%82%B9%E3%83%9D%E3%83%83%E3%83%86%E3%82%A3%E3%83%B3%E3%82%B0%E3%82%B9%E3%82%B3%E3%83%BC%E3%83%97-20-60%E5%80%8D-60mm-%E3%82%A2%E3%83%BC%E3%83%81%E3%82%A7%E3%83%AA%E3%83%BC/dp/B01AT4AC22/ref=s9u_simh_gw_i2?_encoding=UTF8&amp;pd_rd_i=B01AT4AC22&amp;pd_rd_r=ZBP3X22K2NVGEGEMZ201&amp;pd_rd_w=OPmOd&amp;pd_rd_wg=d87gq&amp;pf_rd_m=AN1VRQENFRJN5&amp;pf_rd_s=&amp;pf_rd_r=46ZNC1KX4V00VKWHWM2J&amp;pf_rd_t=36701&amp;pf_rd_p=087ce431-8701-4543-a5f0-eed749fe6de0&amp;pf_rd_i=desktop</t>
   </si>
 </sst>
 </file>
@@ -24,10 +24,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -45,38 +45,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,102 +85,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,6 +128,73 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -205,187 +205,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,11 +399,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +443,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,26 +475,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,34 +496,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +514,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1001,7 +1001,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
